--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F179B3C-E180-42B9-8AB0-673538FB945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E81553-A3E2-44C5-BF31-994E013213EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8370" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E81553-A3E2-44C5-BF31-994E013213EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697D5B4-7E08-964A-9479-81F197AC0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -109,37 +109,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -187,7 +157,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -204,6 +174,50 @@
                   <c:y val="1.479239123378129E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -327,6 +341,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>REL (inverse)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -389,6 +458,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>ABS (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1038,7 +1162,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1372,15 +1496,15 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1388,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>345.71</v>
       </c>
@@ -1396,7 +1520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>239.27</v>
       </c>
@@ -1409,7 +1533,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -1422,7 +1546,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>162.71</v>
       </c>
@@ -1430,7 +1554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>137.63999999999999</v>
       </c>
@@ -1438,7 +1562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>126.26</v>
       </c>
@@ -1446,10 +1570,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697D5B4-7E08-964A-9479-81F197AC0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B03DF-92DE-4440-AC1E-C0619E311541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28770" yWindow="8355" windowWidth="28770" windowHeight="15450" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.29338188976377955"/>
-                  <c:y val="1.479239123378129E-2"/>
+                  <c:x val="3.5597374227592619E-2"/>
+                  <c:y val="-0.37262830146231724"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -204,72 +204,40 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$7</c:f>
+              <c:f>Feuil1!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>345.71</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>239.27</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="7">
                   <c:v>162.71</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="8">
                   <c:v>137.63999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="9">
                   <c:v>126.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -277,26 +245,38 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$7</c:f>
+              <c:f>Feuil1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,7 +376,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -513,7 +493,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1496,15 +1476,15 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="10.83203125" style="2"/>
+    <col min="3" max="8" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1512,20 +1492,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>345.71</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>878</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>239.27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>888</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1533,12 +1513,12 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>200</v>
-      </c>
-      <c r="B4" s="2">
-        <v>150</v>
+        <v>610</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1546,34 +1526,64 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>162.71</v>
+        <v>466.89</v>
       </c>
       <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>345.71</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>239.27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>137.63999999999999</v>
-      </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>126.26</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>150</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>162.71</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>137.63999999999999</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>126.26</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B03DF-92DE-4440-AC1E-C0619E311541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F0C13-BEE9-DF4C-BC83-4C02E765DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28770" yWindow="8355" windowWidth="28770" windowHeight="15450" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -157,52 +155,15 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5597374227592619E-2"/>
-                  <c:y val="-0.37262830146231724"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -249,13 +210,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -342,7 +303,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>REL (inverse)</a:t>
+                  <a:t>REL</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -493,7 +454,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1476,35 +1437,35 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.81640625" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>878</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>888</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
@@ -1513,11 +1474,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>610</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>25</v>
       </c>
       <c r="D4" s="2"/>
@@ -1526,23 +1487,23 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>466.89</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>345.71</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>239.27</v>
       </c>
@@ -1550,7 +1511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -1559,31 +1520,31 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>162.71</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>137.63999999999999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>126.26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F0C13-BEE9-DF4C-BC83-4C02E765DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493FD74-C6AE-406D-8C0A-954B54A19239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>ABS</t>
+    <t>REL (xi)</t>
   </si>
   <si>
-    <t>REL</t>
+    <t>ABS (yi)</t>
+  </si>
+  <si>
+    <t>xi=lnxi</t>
+  </si>
+  <si>
+    <t>yi=lnyi</t>
+  </si>
+  <si>
+    <t>xi²</t>
+  </si>
+  <si>
+    <t>xiyi</t>
+  </si>
+  <si>
+    <t>Ῡ</t>
+  </si>
+  <si>
+    <t>x/</t>
+  </si>
+  <si>
+    <t>∂x²</t>
+  </si>
+  <si>
+    <t>∂xy</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,10 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,7 +147,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13901935214073083"/>
+          <c:y val="9.1324200913242004E-2"/>
+          <c:w val="0.78885620429521786"/>
+          <c:h val="0.74701686261820011"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -124,7 +170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ABS</c:v>
+                  <c:v>ABS (yi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -162,8 +208,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5597374227592619E-2"/>
+                  <c:y val="-0.37262830146231724"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -540,7 +622,398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yi=lnyi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.7776465936351169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7889717429921701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4134589571673573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1460936838850282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8456002733243642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4775926214055861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0919694751512274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9246415809292792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.83834327293948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5553480614894135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.521460917862246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7037824746562009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A74-44B0-9465-CDD491FEA7A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1457719600"/>
+        <c:axId val="1457720016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1457719600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457720016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1457720016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457719600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1096,20 +1569,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1129,6 +2118,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBAE618-5FA8-66BA-F29B-BB7597B7FBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1434,117 +2459,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I1" sqref="I1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>878</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
+      <c r="C2" s="2">
+        <f>LN(A2)</f>
+        <v>6.7776465936351169</v>
+      </c>
+      <c r="D2" s="2">
+        <f>LN(B2)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2^2</f>
+        <v>45.936493348213702</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2*D2</f>
+        <v>15.606108012086095</v>
+      </c>
+      <c r="I2">
+        <f>D12/10</f>
+        <v>4.1836248425032849</v>
+      </c>
+      <c r="J2">
+        <f>C12/10</f>
+        <v>5.7602635567977645</v>
+      </c>
+      <c r="K2">
+        <f>E12/10-J2^2</f>
+        <v>0.49642354655167509</v>
+      </c>
+      <c r="L2">
+        <f>F12/10-(J2*I2)</f>
+        <v>-0.80929537268523433</v>
+      </c>
+      <c r="M2">
+        <f>L2/K2</f>
+        <v>-1.6302517846038371</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>888</v>
       </c>
       <c r="B3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="0">LN(A3)</f>
+        <v>6.7889717429921701</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="1">LN(B3)</f>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E11" si="2">C3^2</f>
+        <v>46.090137327146145</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="3">C3*D3</f>
+        <v>18.384876293887167</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>610</v>
       </c>
       <c r="B4" s="2">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4134589571673573</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>41.132455795270204</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="3"/>
+        <v>20.644127991010425</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>466.89</v>
       </c>
       <c r="B5" s="2">
         <v>35</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1460936838850282</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>37.774467571091435</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>21.851502264732964</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>345.71</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8456002733243642</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>34.171042555489883</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>22.868122749781971</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>239.27</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
       </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4775926214055861</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>30.004020926076922</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>25.225246231085361</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>200</v>
       </c>
       <c r="B8" s="2">
         <v>150</v>
       </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0106352940962555</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>28.072166916664518</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>26.547935996148716</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>162.71</v>
       </c>
       <c r="B9" s="2">
         <v>200</v>
       </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0919694751512274</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>25.928153135871867</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>26.978870300126239</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>137.63999999999999</v>
       </c>
       <c r="B10" s="2">
         <v>250</v>
       </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9246415809292792</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.521460917862246</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>24.252094700617629</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>27.19121602358036</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>126.26</v>
       </c>
       <c r="B11" s="2">
         <v>300</v>
       </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.83834327293948</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7037824746562009</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>23.40956562679872</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>27.596857566562928</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <f t="shared" ref="B12:D12" si="4">SUM(C2:C11)</f>
+        <v>57.602635567977643</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="4"/>
+        <v>41.836248425032849</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12" si="5">SUM(E2:E11)</f>
+        <v>336.77059790324108</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12" si="6">SUM(F2:F11)</f>
+        <v>232.89486342900224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J14" s="1"/>
     </row>
   </sheetData>

--- a/distancemoindrecarre/moindrecarre.xlsx
+++ b/distancemoindrecarre/moindrecarre.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493FD74-C6AE-406D-8C0A-954B54A19239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F5DF0-4F4F-BD47-9517-B637CB453EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -208,44 +210,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5597374227592619E-2"/>
-                  <c:y val="-0.37262830146231724"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -385,7 +351,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>REL</a:t>
+                  <a:t>REL (inverse)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2465,13 +2431,12 @@
       <selection activeCell="I1" sqref="I1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="2"/>
-    <col min="3" max="8" width="10.81640625" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>878</v>
       </c>
@@ -2551,7 +2516,7 @@
         <v>-1.6302517846038371</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>888</v>
       </c>
@@ -2577,7 +2542,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>610</v>
       </c>
@@ -2603,7 +2568,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>466.89</v>
       </c>
@@ -2627,7 +2592,7 @@
         <v>21.851502264732964</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>345.71</v>
       </c>
@@ -2651,7 +2616,7 @@
         <v>22.868122749781971</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>239.27</v>
       </c>
@@ -2675,7 +2640,7 @@
         <v>25.225246231085361</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -2700,7 +2665,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>162.71</v>
       </c>
@@ -2724,7 +2689,7 @@
         <v>26.978870300126239</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>137.63999999999999</v>
       </c>
@@ -2748,7 +2713,7 @@
         <v>27.19121602358036</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>126.26</v>
       </c>
@@ -2772,11 +2737,11 @@
         <v>27.596857566562928</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <f t="shared" ref="B12:D12" si="4">SUM(C2:C11)</f>
+        <f t="shared" ref="C12:D12" si="4">SUM(C2:C11)</f>
         <v>57.602635567977643</v>
       </c>
       <c r="D12" s="3">
@@ -2792,7 +2757,7 @@
         <v>232.89486342900224</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
     </row>
   </sheetData>
